--- a/extra/wiki_search.xlsx
+++ b/extra/wiki_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Documents\AI-CUP-2023-Fact-Verification\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAD2FEA-ADB3-49EC-8906-7F0F4BFBBA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4C109C-72AB-4766-ADB3-3445D4557648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{12BB5F5D-FD02-4F4D-8937-6A8C111303A9}"/>
+    <workbookView xWindow="57195" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{12BB5F5D-FD02-4F4D-8937-6A8C111303A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
   <si>
     <t>keyword</t>
   </si>
@@ -264,6 +264,48 @@
   <si>
     <t>藤子・F・不二雄</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生卒年</t>
+  </si>
+  <si>
+    <t>1955年電影</t>
+  </si>
+  <si>
+    <t>創設於1885年</t>
+  </si>
+  <si>
+    <t>影響</t>
+  </si>
+  <si>
+    <t>中國文學研究所</t>
+  </si>
+  <si>
+    <t>始建於1446年</t>
+  </si>
+  <si>
+    <t>供</t>
+  </si>
+  <si>
+    <t>建於1903年</t>
+  </si>
+  <si>
+    <t>主祀神</t>
+  </si>
+  <si>
+    <t>人數</t>
+  </si>
+  <si>
+    <t>美國克利夫蘭市</t>
+  </si>
+  <si>
+    <t>代萊特人口數</t>
+  </si>
+  <si>
+    <t>日本四大民間傳說</t>
+  </si>
+  <si>
+    <t>新的研究方法</t>
   </si>
 </sst>
 </file>
@@ -653,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D22E90-CB2A-49D3-B5F0-73CA9BFC5D88}">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1466,6 +1508,101 @@
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
